--- a/data/ansr dados.xlsx
+++ b/data/ansr dados.xlsx
@@ -194,14 +194,14 @@
   <dimension ref="A2:AV21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="AB1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AR32" activeCellId="0" sqref="AR32"/>
+      <selection pane="topRight" activeCell="AK16" activeCellId="0" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="2.38"/>
   </cols>
@@ -1526,7 +1526,7 @@
         <v>25941</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>257144</v>
+        <v>25744</v>
       </c>
       <c r="Z16" s="2" t="n">
         <v>27857</v>
@@ -1557,7 +1557,7 @@
         <v>9228</v>
       </c>
       <c r="AK16" s="2" t="n">
-        <v>45857</v>
+        <v>9196</v>
       </c>
       <c r="AL16" s="2" t="n">
         <v>8166</v>
